--- a/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
+++ b/InputData/bldgs/SoBCaICbIC/Shr of Bldg Cap and Instl Costs by ISIC Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/bldgs/SoBCaICbIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/sobcaicbic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F1DC64C-E6E4-C448-9693-B412DF93251E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E0443E-BD00-0447-89F9-ABC3C95D900A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="27180" windowHeight="14840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="633">
   <si>
     <t>Notes</t>
   </si>
@@ -2252,9 +2252,6 @@
   </si>
   <si>
     <t>30-AEO2021.101.highogs-d120120a</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -2787,7 +2784,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3115,6 +3112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3557,15 +3555,15 @@
     <col min="6" max="6" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="149">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -3573,47 +3571,47 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
